--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gatter/Documents/Research - 1 - Current/ 080905 - QueryViz/ 230104 - AT study - programmatic MCQ generation (git)/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE6BA52-C941-C44D-ABF9-C7376A92E064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC93645-E6CA-B54C-8A52-AE0BAF23A19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="622">
   <si>
     <t>diagrampattern1</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Tourist</t>
   </si>
   <si>
-    <t>Vistis</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -1458,6 +1455,450 @@
   </si>
   <si>
     <t>nkswrxfwdvid</t>
+  </si>
+  <si>
+    <t>answer1</t>
+  </si>
+  <si>
+    <t>answer2</t>
+  </si>
+  <si>
+    <t>answer3</t>
+  </si>
+  <si>
+    <t>answer4</t>
+  </si>
+  <si>
+    <t>Find sailors who have reserved **some** boat.</t>
+  </si>
+  <si>
+    <t>Find sailors who have **not** reserved **any** boat.</t>
+  </si>
+  <si>
+    <t>Find sailors who have reserved **all** boats.</t>
+  </si>
+  <si>
+    <t>Find sailors who have **not** reserved **all** boats.</t>
+  </si>
+  <si>
+    <t>Find students who took **some** course.</t>
+  </si>
+  <si>
+    <t>Find actors who play in **some** movie.</t>
+  </si>
+  <si>
+    <t>Find actors who do **not** play in **any** movie.</t>
+  </si>
+  <si>
+    <t>Find actors who do **not** play in **all** movies.</t>
+  </si>
+  <si>
+    <t>Find actors who play in **all** movies.</t>
+  </si>
+  <si>
+    <t>Find suppliers who supply **some** part.</t>
+  </si>
+  <si>
+    <t>Find suppliers who do **not** supply **any** part.</t>
+  </si>
+  <si>
+    <t>Find suppliers who do **not** supply **all** parts.</t>
+  </si>
+  <si>
+    <t>Find suppliers who supply **all** parts.</t>
+  </si>
+  <si>
+    <t>Find employees who work on **some** project.</t>
+  </si>
+  <si>
+    <t>Find employees who do **not** work on **any** project.</t>
+  </si>
+  <si>
+    <t>Find employees who do **not** work on **all** projects.</t>
+  </si>
+  <si>
+    <t>Find employees who work on **all** projects.</t>
+  </si>
+  <si>
+    <t>Find students who did **not** take any course.</t>
+  </si>
+  <si>
+    <t>Find students who did **not** take **all** courses.</t>
+  </si>
+  <si>
+    <t>Find students who took **all** courses.</t>
+  </si>
+  <si>
+    <t>Find tourists who visit **some** country.</t>
+  </si>
+  <si>
+    <t>Find tourists who do **not** visit **any** country.</t>
+  </si>
+  <si>
+    <t>Find tourists who do **not** visit **all** countries.</t>
+  </si>
+  <si>
+    <t>Find tourists who visit **all** countries.</t>
+  </si>
+  <si>
+    <t>Find customers who rent **some** vehicle.</t>
+  </si>
+  <si>
+    <t>Find customers who do **not** rent **any** vehicle.</t>
+  </si>
+  <si>
+    <t>Find customers who do **not** rent **all** vehicles.</t>
+  </si>
+  <si>
+    <t>Find customers who rent **all** vehicles.</t>
+  </si>
+  <si>
+    <t>Find students who pass **some** exam.</t>
+  </si>
+  <si>
+    <t>Find students who do **not** pass **any** exam.</t>
+  </si>
+  <si>
+    <t>Find students who do **not** pass **all** exams.</t>
+  </si>
+  <si>
+    <t>Find students who pass **all** exams.</t>
+  </si>
+  <si>
+    <t>Find directors who do **not** direct **any** movie.</t>
+  </si>
+  <si>
+    <t>Find directors who do **not** direct **all** movies.</t>
+  </si>
+  <si>
+    <t>Find directors who direct **some** movie.</t>
+  </si>
+  <si>
+    <t>Find directors who direct **all** movies.</t>
+  </si>
+  <si>
+    <t>Find companies that produce **some** article.</t>
+  </si>
+  <si>
+    <t>Find companies that do **not** produce **any** article.</t>
+  </si>
+  <si>
+    <t>Find companies that do **not** produce **all** articles.</t>
+  </si>
+  <si>
+    <t>Find companies that produce **all** articles.</t>
+  </si>
+  <si>
+    <t>Find students who participate in **some** project.</t>
+  </si>
+  <si>
+    <t>Find students who do **not** participate in **any** project.</t>
+  </si>
+  <si>
+    <t>Find students who do **not** participate in **all** projects.</t>
+  </si>
+  <si>
+    <t>Find students who participate in **all** projects.</t>
+  </si>
+  <si>
+    <t>Find friends who visit **some** park.</t>
+  </si>
+  <si>
+    <t>Find friends who do **not** visit **any** park.</t>
+  </si>
+  <si>
+    <t>Find friends who do **not** visit **all** parks.</t>
+  </si>
+  <si>
+    <t>Find friends who visit **all** parks.</t>
+  </si>
+  <si>
+    <t>Find guests who rent **some** room.</t>
+  </si>
+  <si>
+    <t>Find guests who do **not** rent **any** room.</t>
+  </si>
+  <si>
+    <t>Find guests who do **not** rent **all** rooms.</t>
+  </si>
+  <si>
+    <t>Find guests who rent **all** rooms.</t>
+  </si>
+  <si>
+    <t>Find employees who attend **some** class.</t>
+  </si>
+  <si>
+    <t>Find employees who do **not** attend **any** class.</t>
+  </si>
+  <si>
+    <t>Find employees who do **not** attend **all** classes.</t>
+  </si>
+  <si>
+    <t>Find employees who attend **all** classes.</t>
+  </si>
+  <si>
+    <t>Find customers who watch **some** movie.</t>
+  </si>
+  <si>
+    <t>Find customers who do **not** watch **any** movie.</t>
+  </si>
+  <si>
+    <t>Find customers who do **not** watch **all** movies.</t>
+  </si>
+  <si>
+    <t>Find customers who watch **all** movies.</t>
+  </si>
+  <si>
+    <t>Find merchants who sell **some** part.</t>
+  </si>
+  <si>
+    <t>Find merchants who do **not** sell **any** part.</t>
+  </si>
+  <si>
+    <t>Find merchants who do **not** sell **all** parts.</t>
+  </si>
+  <si>
+    <t>Find merchants who sell **all** parts.</t>
+  </si>
+  <si>
+    <t>Find users who visit **some** web page.</t>
+  </si>
+  <si>
+    <t>Find users who do **not** visit **any** web page.</t>
+  </si>
+  <si>
+    <t>Find users who do **not** visit **all** web pages.</t>
+  </si>
+  <si>
+    <t>Find users who visit **all** web pages.</t>
+  </si>
+  <si>
+    <t>Find companies that have offices in **some** city.</t>
+  </si>
+  <si>
+    <t>Find companies that do **not** have offices in **any** city.</t>
+  </si>
+  <si>
+    <t>Find companies that do **not** have offices in **all** cities.</t>
+  </si>
+  <si>
+    <t>Find companies that have offices in **all** cities.</t>
+  </si>
+  <si>
+    <t>Find friends who have borrowed **some** item.</t>
+  </si>
+  <si>
+    <t>Find friends who have **not** borrowed **any** item.</t>
+  </si>
+  <si>
+    <t>Find friends who have **not** borrowed **all** items.</t>
+  </si>
+  <si>
+    <t>Find friends who have borrowed **all** items.</t>
+  </si>
+  <si>
+    <t>Find instructors who teach **some** class.</t>
+  </si>
+  <si>
+    <t>Find instructors who do **not** teach **any** class.</t>
+  </si>
+  <si>
+    <t>Find instructors who do **not** teach **all** classes.</t>
+  </si>
+  <si>
+    <t>Find instructors who teach **all** classes.</t>
+  </si>
+  <si>
+    <t>Find friends who know **some** film.</t>
+  </si>
+  <si>
+    <t>Find friends who do **not** know **any** film.</t>
+  </si>
+  <si>
+    <t>Find friends who do **not** know **all** films.</t>
+  </si>
+  <si>
+    <t>Find friends who do know **all** films.</t>
+  </si>
+  <si>
+    <t>Find companies that sell **some** product.</t>
+  </si>
+  <si>
+    <t>Find companies that do **not** sell **any** product.</t>
+  </si>
+  <si>
+    <t>Find companies that do **not** sell **all** products.</t>
+  </si>
+  <si>
+    <t>Find companies that sell **all** products.</t>
+  </si>
+  <si>
+    <t>Find playlists that contain **some** song.</t>
+  </si>
+  <si>
+    <t>Find playlists that do **not** contain **any** song.</t>
+  </si>
+  <si>
+    <t>Find playlists that do **not** contain **all** songs.</t>
+  </si>
+  <si>
+    <t>Find playlists that contain **all** songs.</t>
+  </si>
+  <si>
+    <t>Find books that are available in **some** language.</t>
+  </si>
+  <si>
+    <t>Find books that are **not** available in **any** language.</t>
+  </si>
+  <si>
+    <t>Find books that are **not** available in **all** languages.</t>
+  </si>
+  <si>
+    <t>Find books that are available in **all** languages.</t>
+  </si>
+  <si>
+    <t>Find clients that hire **some** contractor.</t>
+  </si>
+  <si>
+    <t>Find clients that do **not** hire **any** contractor.</t>
+  </si>
+  <si>
+    <t>Find clients that do **not** hire **all** contractors.</t>
+  </si>
+  <si>
+    <t>Find clients that hire **all** contractors.</t>
+  </si>
+  <si>
+    <t>Find instructors who belong to **some** department.</t>
+  </si>
+  <si>
+    <t>Find instructors who do **not** belong to **any** department.</t>
+  </si>
+  <si>
+    <t>Find instructors who do **not** belong to **all** departments.</t>
+  </si>
+  <si>
+    <t>Find instructors who belong to **all** departments.</t>
+  </si>
+  <si>
+    <t>Find channels that show **some** movie.</t>
+  </si>
+  <si>
+    <t>Find channels that do **not** show **any** movie.</t>
+  </si>
+  <si>
+    <t>Find channels that do **not** show **all** movies.</t>
+  </si>
+  <si>
+    <t>Find channels that show **all** movies.</t>
+  </si>
+  <si>
+    <t>Find customers who order **some** product.</t>
+  </si>
+  <si>
+    <t>Find customers who do **not** order **any** product.</t>
+  </si>
+  <si>
+    <t>Find customers who do **not** order **all** products.</t>
+  </si>
+  <si>
+    <t>Find customers who order **all** products.</t>
+  </si>
+  <si>
+    <t>Find users how have **some** permission.</t>
+  </si>
+  <si>
+    <t>Find users how do **not** have **any** permission.</t>
+  </si>
+  <si>
+    <t>Find users how do **not** have **all** permissions.</t>
+  </si>
+  <si>
+    <t>Find users how have **all** permissions.</t>
+  </si>
+  <si>
+    <t>Find dishes that contain **some** ingredient.</t>
+  </si>
+  <si>
+    <t>Find dishes that do **not** contain **any** ingredient.</t>
+  </si>
+  <si>
+    <t>Find dishes that do **not** contain **all** ingredients.</t>
+  </si>
+  <si>
+    <t>Find dishes that contain **all** ingredients.</t>
+  </si>
+  <si>
+    <t>Find vehicles that have **some** feature.</t>
+  </si>
+  <si>
+    <t>Find vehicles that do **not** have **any** feature.</t>
+  </si>
+  <si>
+    <t>Find vehicles that do **not** have **all** features.</t>
+  </si>
+  <si>
+    <t>Find vehicles that have **all** features.</t>
+  </si>
+  <si>
+    <t>Find passengers who reserve **some** seat.</t>
+  </si>
+  <si>
+    <t>Find passengers who do **not** reserve **any** seat.</t>
+  </si>
+  <si>
+    <t>Find passengers who do **not** reserve **all** seats.</t>
+  </si>
+  <si>
+    <t>Find passengers who reserve **all** seats.</t>
+  </si>
+  <si>
+    <t>Find users who like **some** image.</t>
+  </si>
+  <si>
+    <t>Find users who do **not** like **any** image.</t>
+  </si>
+  <si>
+    <t>Find users who do **not** like **all** images.</t>
+  </si>
+  <si>
+    <t>Find users who like **all** images.</t>
+  </si>
+  <si>
+    <t>Find persons who are members of **some** department.</t>
+  </si>
+  <si>
+    <t>Find persons who are **not** members of **any** department.</t>
+  </si>
+  <si>
+    <t>Find persons who are **not** members of **all** departments.</t>
+  </si>
+  <si>
+    <t>Find persons who are members of **all** departments.</t>
+  </si>
+  <si>
+    <t>Find orders that include **some** product.</t>
+  </si>
+  <si>
+    <t>Find orders that do **not** include **any** product.</t>
+  </si>
+  <si>
+    <t>Find orders that do **not** include **all** products.</t>
+  </si>
+  <si>
+    <t>Find orders that include **all** products.</t>
+  </si>
+  <si>
+    <t>Find movies that are available in **some** language.</t>
+  </si>
+  <si>
+    <t>Find movies that are available in **all** languages.</t>
+  </si>
+  <si>
+    <t>Find movies that are **not** available in **all** languages.</t>
+  </si>
+  <si>
+    <t>Find movies that are **not** available in **any** language.</t>
   </si>
 </sst>
 </file>
@@ -1947,9 +2388,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2305,18 +2748,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W147"/>
+  <dimension ref="A1:AA147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection sqref="A1:S37"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection sqref="A1:W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="20" width="10.33203125" customWidth="1"/>
+    <col min="4" max="19" width="0.5" customWidth="1"/>
+    <col min="20" max="23" width="27" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2374,8 +2819,20 @@
       <c r="S1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T1" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2410,31 +2867,43 @@
         <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2469,31 +2938,43 @@
         <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2528,31 +3009,43 @@
         <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2587,31 +3080,43 @@
         <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2646,45 +3151,57 @@
         <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>59</v>
       </c>
       <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
         <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -2693,51 +3210,63 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K7" t="s">
         <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S7" t="s">
+        <v>110</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>112</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -2746,7 +3275,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
@@ -2755,48 +3284,60 @@
         <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" t="s">
         <v>115</v>
       </c>
-      <c r="K8" t="s">
-        <v>116</v>
-      </c>
       <c r="L8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
         <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -2811,57 +3352,69 @@
         <v>47</v>
       </c>
       <c r="H9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" t="s">
         <v>119</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" t="s">
+        <v>205</v>
+      </c>
+      <c r="M9" t="s">
+        <v>235</v>
+      </c>
+      <c r="N9" t="s">
+        <v>265</v>
+      </c>
+      <c r="O9" t="s">
+        <v>295</v>
+      </c>
+      <c r="P9" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>355</v>
+      </c>
+      <c r="R9" t="s">
+        <v>385</v>
+      </c>
+      <c r="S9" t="s">
+        <v>415</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>120</v>
       </c>
-      <c r="J9" t="s">
-        <v>119</v>
-      </c>
-      <c r="K9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L9" t="s">
-        <v>206</v>
-      </c>
-      <c r="M9" t="s">
-        <v>236</v>
-      </c>
-      <c r="N9" t="s">
-        <v>266</v>
-      </c>
-      <c r="O9" t="s">
-        <v>296</v>
-      </c>
-      <c r="P9" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>356</v>
-      </c>
-      <c r="R9" t="s">
-        <v>386</v>
-      </c>
-      <c r="S9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>121</v>
-      </c>
-      <c r="B10" t="s">
-        <v>122</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s">
         <v>123</v>
-      </c>
-      <c r="E10" t="s">
-        <v>124</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
@@ -2870,51 +3423,63 @@
         <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
         <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
         <v>42</v>
       </c>
       <c r="L10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
         <v>126</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>127</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -2941,36 +3506,48 @@
         <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S11" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -2979,7 +3556,7 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
@@ -2991,54 +3568,66 @@
         <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
         <v>26</v>
       </c>
       <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>208</v>
+      </c>
+      <c r="M12" t="s">
+        <v>238</v>
+      </c>
+      <c r="N12" t="s">
+        <v>268</v>
+      </c>
+      <c r="O12" t="s">
+        <v>298</v>
+      </c>
+      <c r="P12" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>358</v>
+      </c>
+      <c r="R12" t="s">
+        <v>388</v>
+      </c>
+      <c r="S12" t="s">
+        <v>418</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>131</v>
       </c>
-      <c r="L12" t="s">
-        <v>209</v>
-      </c>
-      <c r="M12" t="s">
-        <v>239</v>
-      </c>
-      <c r="N12" t="s">
-        <v>269</v>
-      </c>
-      <c r="O12" t="s">
-        <v>299</v>
-      </c>
-      <c r="P12" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>359</v>
-      </c>
-      <c r="R12" t="s">
-        <v>389</v>
-      </c>
-      <c r="S12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>132</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>133</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>134</v>
       </c>
-      <c r="D13" t="s">
-        <v>135</v>
-      </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
@@ -3047,64 +3636,76 @@
         <v>47</v>
       </c>
       <c r="H13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>209</v>
+      </c>
+      <c r="M13" t="s">
+        <v>239</v>
+      </c>
+      <c r="N13" t="s">
+        <v>269</v>
+      </c>
+      <c r="O13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P13" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>359</v>
+      </c>
+      <c r="R13" t="s">
+        <v>389</v>
+      </c>
+      <c r="S13" t="s">
+        <v>419</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y13" s="1" t="str">
+        <f ca="1">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
+        <v>lzezvugwalhf</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>136</v>
       </c>
-      <c r="I13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" t="s">
-        <v>136</v>
-      </c>
-      <c r="K13" t="s">
-        <v>131</v>
-      </c>
-      <c r="L13" t="s">
-        <v>210</v>
-      </c>
-      <c r="M13" t="s">
-        <v>240</v>
-      </c>
-      <c r="N13" t="s">
-        <v>270</v>
-      </c>
-      <c r="O13" t="s">
-        <v>300</v>
-      </c>
-      <c r="P13" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>360</v>
-      </c>
-      <c r="R13" t="s">
-        <v>390</v>
-      </c>
-      <c r="S13" t="s">
-        <v>420</v>
-      </c>
-      <c r="U13" s="1" t="str">
-        <f ca="1">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
-        <v>rkrmfdpimusy</v>
-      </c>
-      <c r="W13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" t="s">
         <v>137</v>
       </c>
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>138</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>139</v>
-      </c>
-      <c r="E14" t="s">
-        <v>140</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -3113,58 +3714,70 @@
         <v>47</v>
       </c>
       <c r="H14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" t="s">
         <v>141</v>
       </c>
-      <c r="I14" t="s">
-        <v>142</v>
-      </c>
       <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
         <v>141</v>
       </c>
-      <c r="K14" t="s">
-        <v>142</v>
-      </c>
       <c r="L14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S14" t="s">
-        <v>421</v>
-      </c>
-      <c r="U14" s="1" t="str">
-        <f t="shared" ref="U14:U77" ca="1" si="0">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
-        <v>jwoysvriwjlr</v>
-      </c>
-      <c r="W14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y14" s="1" t="str">
+        <f t="shared" ref="Y14:Y77" ca="1" si="0">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
+        <v>cucpjshglubd</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
       <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
         <v>143</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
       </c>
       <c r="D15" t="s">
         <v>53</v>
@@ -3179,55 +3792,67 @@
         <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I15" t="s">
         <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
         <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="S15" t="s">
-        <v>422</v>
-      </c>
-      <c r="U15" s="1" t="str">
+        <v>421</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y15" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>yqncrvrqukbr</v>
-      </c>
-      <c r="W15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>dpulbzocymsk</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -3257,43 +3882,55 @@
         <v>42</v>
       </c>
       <c r="L16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S16" t="s">
-        <v>423</v>
-      </c>
-      <c r="U16" s="1" t="str">
+        <v>422</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y16" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>yboniribsnga</v>
-      </c>
-      <c r="W16" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>shushkvlkqbe</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
         <v>147</v>
-      </c>
-      <c r="B17" t="s">
-        <v>148</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -3314,61 +3951,73 @@
         <v>42</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S17" t="s">
-        <v>424</v>
-      </c>
-      <c r="U17" s="1" t="str">
+        <v>423</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y17" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>jnsapyeyqyoi</v>
-      </c>
-      <c r="W17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>hxystskyljkq</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s">
         <v>149</v>
       </c>
-      <c r="B18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" t="s">
-        <v>151</v>
-      </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
         <v>54</v>
@@ -3377,193 +4026,229 @@
         <v>47</v>
       </c>
       <c r="H18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" t="s">
         <v>152</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>214</v>
+      </c>
+      <c r="M18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N18" t="s">
+        <v>274</v>
+      </c>
+      <c r="O18" t="s">
+        <v>304</v>
+      </c>
+      <c r="P18" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>364</v>
+      </c>
+      <c r="R18" t="s">
+        <v>394</v>
+      </c>
+      <c r="S18" t="s">
+        <v>424</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y18" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>lcavdysofaiz</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
         <v>153</v>
       </c>
-      <c r="J18" t="s">
-        <v>152</v>
-      </c>
-      <c r="K18" t="s">
-        <v>153</v>
-      </c>
-      <c r="L18" t="s">
-        <v>215</v>
-      </c>
-      <c r="M18" t="s">
-        <v>245</v>
-      </c>
-      <c r="N18" t="s">
-        <v>275</v>
-      </c>
-      <c r="O18" t="s">
-        <v>305</v>
-      </c>
-      <c r="P18" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>365</v>
-      </c>
-      <c r="R18" t="s">
-        <v>395</v>
-      </c>
-      <c r="S18" t="s">
-        <v>425</v>
-      </c>
-      <c r="U18" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>lqvzzzrfypmh</v>
-      </c>
-      <c r="W18" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>154</v>
-      </c>
-      <c r="C19" t="s">
-        <v>155</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
       </c>
       <c r="E19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" t="s">
         <v>156</v>
-      </c>
-      <c r="F19" t="s">
-        <v>157</v>
       </c>
       <c r="G19" t="s">
         <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I19" t="s">
         <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s">
         <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S19" t="s">
-        <v>426</v>
-      </c>
-      <c r="U19" s="1" t="str">
+        <v>425</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y19" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>fdywbtwwhdhr</v>
-      </c>
-      <c r="W19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>lqtstmblmilh</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
         <v>158</v>
       </c>
-      <c r="C20" t="s">
-        <v>159</v>
-      </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
         <v>47</v>
       </c>
       <c r="H20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" t="s">
+        <v>216</v>
+      </c>
+      <c r="M20" t="s">
+        <v>246</v>
+      </c>
+      <c r="N20" t="s">
+        <v>276</v>
+      </c>
+      <c r="O20" t="s">
+        <v>306</v>
+      </c>
+      <c r="P20" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>366</v>
+      </c>
+      <c r="R20" t="s">
+        <v>396</v>
+      </c>
+      <c r="S20" t="s">
+        <v>426</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y20" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cfpfxwqfvbyw</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>161</v>
       </c>
-      <c r="I20" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" t="s">
-        <v>217</v>
-      </c>
-      <c r="M20" t="s">
-        <v>247</v>
-      </c>
-      <c r="N20" t="s">
-        <v>277</v>
-      </c>
-      <c r="O20" t="s">
-        <v>307</v>
-      </c>
-      <c r="P20" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>367</v>
-      </c>
-      <c r="R20" t="s">
-        <v>397</v>
-      </c>
-      <c r="S20" t="s">
-        <v>427</v>
-      </c>
-      <c r="U20" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>zgcatbbenqcc</v>
-      </c>
-      <c r="W20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>162</v>
       </c>
-      <c r="B21" t="s">
-        <v>163</v>
-      </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
         <v>31</v>
@@ -3575,124 +4260,148 @@
         <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I21" t="s">
         <v>33</v>
       </c>
       <c r="J21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K21" t="s">
         <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S21" t="s">
-        <v>428</v>
-      </c>
-      <c r="U21" s="1" t="str">
+        <v>427</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y21" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>brsjlmszlqpk</v>
-      </c>
-      <c r="W21" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>xikjwqajyfca</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" t="s">
         <v>164</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" t="s">
         <v>165</v>
       </c>
-      <c r="D22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>166</v>
-      </c>
-      <c r="F22" t="s">
-        <v>167</v>
       </c>
       <c r="G22" t="s">
         <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S22" t="s">
-        <v>429</v>
-      </c>
-      <c r="U22" s="1" t="str">
+        <v>428</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y22" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rvnqnnkkxxbs</v>
-      </c>
-      <c r="W22" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>qsxtrmxfjkdo</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
@@ -3707,58 +4416,70 @@
         <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I23" t="s">
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K23" t="s">
         <v>49</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S23" t="s">
-        <v>430</v>
-      </c>
-      <c r="U23" s="1" t="str">
+        <v>429</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y23" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>gpabpomoegoj</v>
-      </c>
-      <c r="W23" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>eyotciovzvgu</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
         <v>171</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>172</v>
-      </c>
-      <c r="C24" t="s">
-        <v>173</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -3773,58 +4494,70 @@
         <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I24" t="s">
         <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s">
         <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S24" t="s">
-        <v>431</v>
-      </c>
-      <c r="U24" s="1" t="str">
+        <v>430</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y24" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>nmzxpydxqmmz</v>
-      </c>
-      <c r="W24" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>txonbqgcouis</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" t="s">
         <v>174</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>175</v>
-      </c>
-      <c r="C25" t="s">
-        <v>176</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -3833,7 +4566,7 @@
         <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -3842,184 +4575,220 @@
         <v>27</v>
       </c>
       <c r="I25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J25" t="s">
         <v>27</v>
       </c>
       <c r="K25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="s">
+        <v>251</v>
+      </c>
+      <c r="N25" t="s">
+        <v>281</v>
+      </c>
+      <c r="O25" t="s">
+        <v>311</v>
+      </c>
+      <c r="P25" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>371</v>
+      </c>
+      <c r="R25" t="s">
+        <v>401</v>
+      </c>
+      <c r="S25" t="s">
+        <v>431</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y25" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>susbfecipkhn</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>178</v>
       </c>
-      <c r="L25" t="s">
-        <v>222</v>
-      </c>
-      <c r="M25" t="s">
-        <v>252</v>
-      </c>
-      <c r="N25" t="s">
-        <v>282</v>
-      </c>
-      <c r="O25" t="s">
-        <v>312</v>
-      </c>
-      <c r="P25" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>372</v>
-      </c>
-      <c r="R25" t="s">
-        <v>402</v>
-      </c>
-      <c r="S25" t="s">
-        <v>432</v>
-      </c>
-      <c r="U25" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>plzsbrkkbubu</v>
-      </c>
-      <c r="W25" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>179</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>180</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>181</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" t="s">
         <v>182</v>
-      </c>
-      <c r="E26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" t="s">
-        <v>183</v>
       </c>
       <c r="G26" t="s">
         <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I26" t="s">
         <v>33</v>
       </c>
       <c r="J26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K26" t="s">
         <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S26" t="s">
-        <v>433</v>
-      </c>
-      <c r="U26" s="1" t="str">
+        <v>432</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y26" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>giqjukvarhpf</v>
-      </c>
-      <c r="W26" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>qsauknwgszjo</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" t="s">
         <v>184</v>
       </c>
-      <c r="C27" t="s">
-        <v>185</v>
-      </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" t="s">
         <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S27" t="s">
-        <v>434</v>
-      </c>
-      <c r="U27" s="1" t="str">
+        <v>433</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y27" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>bpndoywfjxaw</v>
-      </c>
-      <c r="W27" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>pocfhskucbrx</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" t="s">
         <v>186</v>
-      </c>
-      <c r="B28" t="s">
-        <v>187</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
@@ -4049,52 +4818,64 @@
         <v>42</v>
       </c>
       <c r="L28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S28" t="s">
-        <v>435</v>
-      </c>
-      <c r="U28" s="1" t="str">
+        <v>434</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y28" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>sznzjioygtoe</v>
-      </c>
-      <c r="W28" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>syzssswijwad</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F29" t="s">
         <v>38</v>
@@ -4106,61 +4887,73 @@
         <v>33</v>
       </c>
       <c r="I29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J29" t="s">
         <v>33</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S29" t="s">
-        <v>436</v>
-      </c>
-      <c r="U29" s="1" t="str">
+        <v>435</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y29" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>yeuewvcjqhyi</v>
-      </c>
-      <c r="W29" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>mlxapvoyxeyb</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -4169,190 +4962,226 @@
         <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="S30" t="s">
-        <v>437</v>
-      </c>
-      <c r="U30" s="1" t="str">
+        <v>436</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y30" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>bpdmgeiqohnh</v>
-      </c>
-      <c r="W30" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>iprdkqmjanxs</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" t="s">
         <v>192</v>
       </c>
-      <c r="B31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" t="s">
-        <v>193</v>
-      </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
         <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
         <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S31" t="s">
-        <v>438</v>
-      </c>
-      <c r="U31" s="1" t="str">
+        <v>437</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y31" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ibsbicvaydmo</v>
-      </c>
-      <c r="W31" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>vqliicqcjjdu</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G32" t="s">
         <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S32" t="s">
-        <v>439</v>
-      </c>
-      <c r="U32" s="1" t="str">
+        <v>438</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y32" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>svskckuhxrxr</v>
-      </c>
-      <c r="W32" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>stavfueuznin</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
@@ -4367,124 +5196,148 @@
         <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I33" t="s">
         <v>48</v>
       </c>
       <c r="J33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K33" t="s">
         <v>48</v>
       </c>
       <c r="L33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S33" t="s">
-        <v>440</v>
-      </c>
-      <c r="U33" s="1" t="str">
+        <v>439</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y33" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>yldxdgjszhic</v>
-      </c>
-      <c r="W33" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>rcvpixigvxmb</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" t="s">
         <v>197</v>
       </c>
-      <c r="C34" t="s">
-        <v>198</v>
-      </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S34" t="s">
-        <v>441</v>
-      </c>
-      <c r="U34" s="1" t="str">
+        <v>440</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y34" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ozoltryjuqtj</v>
-      </c>
-      <c r="W34" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>wfkmfmrvrsqi</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
         <v>199</v>
       </c>
-      <c r="B35" t="s">
-        <v>200</v>
-      </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -4493,130 +5346,154 @@
         <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G35" t="s">
         <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S35" t="s">
-        <v>442</v>
-      </c>
-      <c r="U35" s="1" t="str">
+        <v>441</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y35" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>wadckgbhkdft</v>
-      </c>
-      <c r="W35" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>rvehvrrgpvjw</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
         <v>201</v>
       </c>
-      <c r="B36" t="s">
-        <v>202</v>
-      </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F36" t="s">
         <v>38</v>
       </c>
       <c r="G36" t="s">
+        <v>202</v>
+      </c>
+      <c r="H36" t="s">
         <v>203</v>
       </c>
-      <c r="H36" t="s">
-        <v>204</v>
-      </c>
       <c r="I36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S36" t="s">
-        <v>443</v>
-      </c>
-      <c r="U36" s="1" t="str">
+        <v>442</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y36" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>myhufqvluljw</v>
-      </c>
-      <c r="W36" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="17" x14ac:dyDescent="0.25">
+        <v>mtgplsjksaci</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
         <v>175</v>
-      </c>
-      <c r="C37" t="s">
-        <v>176</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
@@ -4625,7 +5502,7 @@
         <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -4634,1034 +5511,1046 @@
         <v>42</v>
       </c>
       <c r="I37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q37" t="s">
+        <v>383</v>
+      </c>
+      <c r="R37" t="s">
+        <v>413</v>
+      </c>
+      <c r="S37" t="s">
+        <v>443</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y37" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>qbceqqakfzwb</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y38" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>llahtsitmnel</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y39" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>vjrnirmjewrq</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y40" s="1" t="str">
+        <f ca="1">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
+        <v>qqpgopuhvypj</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y41" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>yxgrekevcpyd</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y42" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>rmkqwtwnoucs</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y43" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>crvmrpgtblas</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y44" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>rvrspsoqgblo</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y45" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>pwbvhicxqksu</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y46" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>xlaskyfrcxfw</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y47" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>wektgwcfwdeg</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y48" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ojzcvjukvovj</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y49" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>zwftckklbtnj</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y50" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>qritninuumyn</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y51" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>gmooowuasyda</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y52" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hwwckpdmrdmp</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y53" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>qqvakiesvfoc</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y54" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>squkpoxiignz</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y55" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>iqjtzdtquize</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y56" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cicyvfgmpsgq</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="57" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y57" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>dyiqbaiwgolw</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y58" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>uuxyslxjduuw</v>
+      </c>
+      <c r="AA58" t="s">
         <v>384</v>
       </c>
-      <c r="R37" t="s">
+    </row>
+    <row r="59" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y59" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>aqjjcjyqlxuf</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y60" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>autsozdylijy</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y61" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>bawhanuqtctf</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y62" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>uvwmgewrjhcf</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y63" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>rzjueezxbays</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="64" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y64" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>qhowpytyzpvf</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="65" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y65" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>jdxkxtjzpkvf</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="66" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y66" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>vwnodtlxpbkk</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y67" s="1" t="str">
+        <f ca="1">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
+        <v>kjvbtdgdewoq</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="68" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y68" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>jajjksifcdru</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="69" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y69" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>haskowujdymr</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y70" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>knmejxbnbwkk</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y71" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>dcnqzwytwjqn</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y72" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>bsydvohoyelz</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="73" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y73" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ftofcjemonfy</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="74" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y74" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>smbavkjhghym</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y75" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hzauxbevbkqj</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y76" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>evshqgoqtiga</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="77" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y77" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>jqjsamrefsuc</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="78" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y78" s="1" t="str">
+        <f t="shared" ref="Y78:Y93" ca="1" si="1">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
+        <v>cnalgxqbuwcf</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y79" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>yaayuperavkh</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="80" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y80" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>koqhwgfaoand</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y81" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>kfadknwuncnc</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="82" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y82" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>flhbgbzpzjmd</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="83" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y83" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>sauerfsfqplk</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="84" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y84" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ylynopgcydrv</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y85" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>wennreqgpbdr</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="86" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y86" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>usvxxarqmbth</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y87" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>gxvvocvwhtpt</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="88" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y88" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>xnndypytpncs</v>
+      </c>
+      <c r="AA88" t="s">
         <v>414</v>
       </c>
-      <c r="S37" t="s">
+    </row>
+    <row r="89" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y89" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>aaizdvlvxuuw</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="90" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y90" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>dmfjlfyjmrks</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="91" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y91" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>jvsbquuzpkyo</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="92" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y92" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>xjrzhohjaklz</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="93" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y93" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>omaihnolnkip</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="94" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y94" s="1" t="str">
+        <f ca="1">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
+        <v>efwnfecflnle</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="95" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y95" s="1" t="str">
+        <f t="shared" ref="Y95:Y120" ca="1" si="2">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
+        <v>ermsxbtuhimr</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="96" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y96" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>uopfpsuhaslr</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="97" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y97" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ebiavligdcnb</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="98" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y98" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>wttgrbnocfui</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="99" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y99" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>wvgjfidpbkvs</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="100" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y100" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>sztyqtaznnua</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="101" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y101" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>udvgrsnkrfcg</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="102" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y102" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ctjjmmhyqyju</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="103" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y103" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>yozgobyezvoa</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="104" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y104" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>efnrymunaqhu</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="105" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y105" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>wymkzibawsbv</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="106" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y106" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ewkfaycebjvw</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="107" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y107" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ddxvdjsqfcyi</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="108" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y108" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>xjbdxdvzshlk</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="109" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y109" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>juqygjsjeasx</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="110" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y110" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>zrhostesmzso</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="111" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y111" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>eguujhicpxpa</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="112" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y112" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxwozzmozscp</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="113" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y113" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>vybqyokeyqdl</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="114" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y114" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>jjlhkxlmposw</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="115" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y115" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ddvbiwwusghg</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="116" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y116" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>atkitcjtbrhx</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="117" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y117" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>mvakttezmxgo</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="118" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y118" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>vraswatbivss</v>
+      </c>
+      <c r="AA118" t="s">
         <v>444</v>
       </c>
-      <c r="U37" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ocgdezgnkyix</v>
-      </c>
-      <c r="W37" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U38" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>yfhzdmjrwtjd</v>
-      </c>
-      <c r="W38" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U39" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>roexmqywafck</v>
-      </c>
-      <c r="W39" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U40" s="1" t="str">
+    </row>
+    <row r="119" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y119" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>uzcwdqvzrtuf</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="120" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y120" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>zwzbwqdfttwm</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="121" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y121" s="1" t="str">
         <f ca="1">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
-        <v>wvovvfqrusxq</v>
-      </c>
-      <c r="W40" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U41" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ooeioesqnlrs</v>
-      </c>
-      <c r="W41" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U42" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>sbqfsjwrfunp</v>
-      </c>
-      <c r="W42" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U43" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>qgtqtrwdljtp</v>
-      </c>
-      <c r="W43" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U44" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>jtbleshbfclh</v>
-      </c>
-      <c r="W44" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U45" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>sqriblglzthn</v>
-      </c>
-      <c r="W45" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U46" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>wtnmbjjzwluu</v>
-      </c>
-      <c r="W46" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U47" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>nnmkiaugyhqs</v>
-      </c>
-      <c r="W47" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U48" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>gurnswzozdgj</v>
-      </c>
-      <c r="W48" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="49" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U49" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>efpqyeittxxf</v>
-      </c>
-      <c r="W49" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="50" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U50" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>hvmwznfgmeop</v>
-      </c>
-      <c r="W50" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="51" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U51" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>xmtkdljbqwra</v>
-      </c>
-      <c r="W51" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="52" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U52" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>vajmkmyfstly</v>
-      </c>
-      <c r="W52" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="53" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U53" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>npslxzuxlyke</v>
-      </c>
-      <c r="W53" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="54" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U54" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>sbzsulfrvddi</v>
-      </c>
-      <c r="W54" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="55" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U55" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>obvsprkrrmst</v>
-      </c>
-      <c r="W55" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="56" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U56" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>mbfymnakfuqt</v>
-      </c>
-      <c r="W56" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="57" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U57" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>tyoilwpkepsg</v>
-      </c>
-      <c r="W57" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="58" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U58" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>gkmxhvpscwvm</v>
-      </c>
-      <c r="W58" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="59" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U59" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>gwaqhyxuekgv</v>
-      </c>
-      <c r="W59" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="60" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U60" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ansfyybxvpki</v>
-      </c>
-      <c r="W60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="61" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U61" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>runokoocthwr</v>
-      </c>
-      <c r="W61" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="62" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U62" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ccwcbiltbsqs</v>
-      </c>
-      <c r="W62" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="63" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U63" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>jqwofgmxtnzs</v>
-      </c>
-      <c r="W63" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="64" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U64" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>wkhznopubyzm</v>
-      </c>
-      <c r="W64" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="65" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U65" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>pegbkszjvuvm</v>
-      </c>
-      <c r="W65" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="66" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U66" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>qarybwtdspwf</v>
-      </c>
-      <c r="W66" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="67" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U67" s="1" t="str">
-        <f ca="1">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
-        <v>dqkjzhjuubnh</v>
-      </c>
-      <c r="W67" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="68" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U68" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>uyuyzfcapwxw</v>
-      </c>
-      <c r="W68" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="69" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U69" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>nxxwkhsbcqzc</v>
-      </c>
-      <c r="W69" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="70" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U70" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>tqbwuhjyhkmv</v>
-      </c>
-      <c r="W70" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="71" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U71" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>wzcbbczaptyi</v>
-      </c>
-      <c r="W71" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="72" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U72" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>jhgcalyjxpgc</v>
-      </c>
-      <c r="W72" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="73" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U73" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>smyjuzrscjrn</v>
-      </c>
-      <c r="W73" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="74" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U74" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>fwzyykwmrwhy</v>
-      </c>
-      <c r="W74" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="75" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U75" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>uqxvthmxdtwi</v>
-      </c>
-      <c r="W75" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="76" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U76" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>xrgqqvrvowsq</v>
-      </c>
-      <c r="W76" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="77" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U77" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>dpqnmohvghtd</v>
-      </c>
-      <c r="W77" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="78" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U78" s="1" t="str">
-        <f t="shared" ref="U78:U93" ca="1" si="1">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
-        <v>ukiugzxhwuks</v>
-      </c>
-      <c r="W78" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="79" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U79" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>aojsxwkiowhm</v>
-      </c>
-      <c r="W79" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="80" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U80" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>wzlazflhomce</v>
-      </c>
-      <c r="W80" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="81" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U81" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>xnuzxlfxjabk</v>
-      </c>
-      <c r="W81" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="82" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U82" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>lxpkrhnbpodk</v>
-      </c>
-      <c r="W82" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="83" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U83" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>qlebjvkctepb</v>
-      </c>
-      <c r="W83" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="84" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U84" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>jlxyitkqpzaz</v>
-      </c>
-      <c r="W84" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="85" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U85" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>dilqpkczrazv</v>
-      </c>
-      <c r="W85" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="86" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U86" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>zsgosyjavgip</v>
-      </c>
-      <c r="W86" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="87" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U87" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>hjjjphrlebrv</v>
-      </c>
-      <c r="W87" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="88" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U88" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tybtbyncjcrs</v>
-      </c>
-      <c r="W88" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="89" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U89" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ihvejaplidjx</v>
-      </c>
-      <c r="W89" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="90" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U90" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>fojkjldtxldt</v>
-      </c>
-      <c r="W90" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="91" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U91" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>gndpsfzambxq</v>
-      </c>
-      <c r="W91" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="92" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U92" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>kjjvtxhijatl</v>
-      </c>
-      <c r="W92" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="93" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U93" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>lefmltpakrtu</v>
-      </c>
-      <c r="W93" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="94" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U94" s="1" t="str">
-        <f ca="1">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
-        <v>kcpcttauiipg</v>
-      </c>
-      <c r="W94" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="95" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U95" s="1" t="str">
-        <f t="shared" ref="U95:U120" ca="1" si="2">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
-        <v>qgzimiqjttgj</v>
-      </c>
-      <c r="W95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="96" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U96" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>rwoaeskvlnfu</v>
-      </c>
-      <c r="W96" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="97" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U97" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>ipqzsfgtfzhg</v>
-      </c>
-      <c r="W97" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="98" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U98" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>exgxhdqyranc</v>
-      </c>
-      <c r="W98" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="99" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U99" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>pqifsgznfuxi</v>
-      </c>
-      <c r="W99" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="100" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U100" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>fgmnuvaamlpi</v>
-      </c>
-      <c r="W100" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="101" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U101" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>xwepmstdsuxc</v>
-      </c>
-      <c r="W101" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="102" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U102" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>fecxhwsfbxnn</v>
-      </c>
-      <c r="W102" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="103" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U103" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>sicffethwddn</v>
-      </c>
-      <c r="W103" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="104" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U104" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>bivlqavyudzu</v>
-      </c>
-      <c r="W104" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="105" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U105" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>baxgipzjiave</v>
-      </c>
-      <c r="W105" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="106" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U106" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>ixrdqosgujhm</v>
-      </c>
-      <c r="W106" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="107" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U107" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>bzgprrcurfhf</v>
-      </c>
-      <c r="W107" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="108" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U108" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>xlgokbxhuofg</v>
-      </c>
-      <c r="W108" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="109" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U109" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>taxkdckfaofa</v>
-      </c>
-      <c r="W109" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="110" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U110" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>iajnyqykqlqz</v>
-      </c>
-      <c r="W110" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="111" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U111" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>lhyhfrpyufli</v>
-      </c>
-      <c r="W111" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="112" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U112" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>warzzycwvzot</v>
-      </c>
-      <c r="W112" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="113" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U113" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>iktplerweuvu</v>
-      </c>
-      <c r="W113" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="114" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U114" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>nhlfiknfuqdy</v>
-      </c>
-      <c r="W114" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="115" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U115" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>pepnbhwbrliy</v>
-      </c>
-      <c r="W115" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="116" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U116" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>bslykcijfhsu</v>
-      </c>
-      <c r="W116" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="117" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U117" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>ucdxbtfohbqg</v>
-      </c>
-      <c r="W117" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="118" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U118" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>zdniceoolkkp</v>
-      </c>
-      <c r="W118" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="119" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U119" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>pavbzenfmqui</v>
-      </c>
-      <c r="W119" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="120" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U120" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>ivsqnhktmjdc</v>
-      </c>
-      <c r="W120" t="s">
+        <v>nckuogbynlll</v>
+      </c>
+      <c r="AA121" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="121" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U121" s="1" t="str">
-        <f ca="1">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
-        <v>nqvpjghfbhxv</v>
-      </c>
-      <c r="W121" t="s">
+    <row r="122" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y122" s="1" t="str">
+        <f t="shared" ref="Y122:Y147" ca="1" si="3">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
+        <v>ifzlfvlwhdpg</v>
+      </c>
+      <c r="AA122" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U122" s="1" t="str">
-        <f t="shared" ref="U122:U147" ca="1" si="3">CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97) &amp;  CHAR(RAND()*26+97) &amp; CHAR(RAND()*26+97)</f>
-        <v>bwpplsqfbbqv</v>
-      </c>
-      <c r="W122" t="s">
+    <row r="123" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y123" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>ftagzkszmeyt</v>
+      </c>
+      <c r="AA123" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="123" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U123" s="1" t="str">
+    <row r="124" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y124" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>jzunyczgyylj</v>
-      </c>
-      <c r="W123" t="s">
+        <v>bdqzioygxewe</v>
+      </c>
+      <c r="AA124" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="124" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U124" s="1" t="str">
+    <row r="125" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y125" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>bwfaxuglzqup</v>
-      </c>
-      <c r="W124" t="s">
+        <v>hvrziuziezsq</v>
+      </c>
+      <c r="AA125" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="125" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U125" s="1" t="str">
+    <row r="126" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y126" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>szpyxyilfrmx</v>
-      </c>
-      <c r="W125" t="s">
+        <v>kgvofbyuaanu</v>
+      </c>
+      <c r="AA126" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="126" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U126" s="1" t="str">
+    <row r="127" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y127" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>mwdxrwrwiruq</v>
-      </c>
-      <c r="W126" t="s">
+        <v>eotcyqsnoehz</v>
+      </c>
+      <c r="AA127" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="127" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U127" s="1" t="str">
+    <row r="128" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y128" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>viuqsdaquoxx</v>
-      </c>
-      <c r="W127" t="s">
+        <v>kzgvczriohmh</v>
+      </c>
+      <c r="AA128" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="128" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U128" s="1" t="str">
+    <row r="129" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y129" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>zyubegqalplk</v>
-      </c>
-      <c r="W128" t="s">
+        <v>pilrexetjmaw</v>
+      </c>
+      <c r="AA129" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="129" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U129" s="1" t="str">
+    <row r="130" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y130" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>qqxagsdzvfho</v>
-      </c>
-      <c r="W129" t="s">
+        <v>umoxvvrpyqei</v>
+      </c>
+      <c r="AA130" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="130" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U130" s="1" t="str">
+    <row r="131" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y131" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>jzkygcongxvo</v>
-      </c>
-      <c r="W130" t="s">
+        <v>eupsrlthybgj</v>
+      </c>
+      <c r="AA131" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="131" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U131" s="1" t="str">
+    <row r="132" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y132" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>scfncmxtcuiu</v>
-      </c>
-      <c r="W131" t="s">
+        <v>fwgogxsokcgl</v>
+      </c>
+      <c r="AA132" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="132" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U132" s="1" t="str">
+    <row r="133" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y133" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>jkuywqbehrhs</v>
-      </c>
-      <c r="W132" t="s">
+        <v>fubdlherzjhe</v>
+      </c>
+      <c r="AA133" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="133" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U133" s="1" t="str">
+    <row r="134" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y134" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>zkndttvampsn</v>
-      </c>
-      <c r="W133" t="s">
+        <v>uhdpxvylvfad</v>
+      </c>
+      <c r="AA134" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="134" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U134" s="1" t="str">
+    <row r="135" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y135" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>lpgturzreqhb</v>
-      </c>
-      <c r="W134" t="s">
+        <v>ttdarwuagkzo</v>
+      </c>
+      <c r="AA135" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="135" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U135" s="1" t="str">
+    <row r="136" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y136" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>lwsfxjxdqswn</v>
-      </c>
-      <c r="W135" t="s">
+        <v>qjjtipxfxqlq</v>
+      </c>
+      <c r="AA136" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="136" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U136" s="1" t="str">
+    <row r="137" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y137" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>wqrrwqpwzjwq</v>
-      </c>
-      <c r="W136" t="s">
+        <v>bnuqywraurwk</v>
+      </c>
+      <c r="AA137" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="137" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U137" s="1" t="str">
+    <row r="138" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y138" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ktprvhxhmqyu</v>
-      </c>
-      <c r="W137" t="s">
+        <v>ychrdenkiogu</v>
+      </c>
+      <c r="AA138" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="138" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U138" s="1" t="str">
+    <row r="139" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y139" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ahtpocquhaut</v>
-      </c>
-      <c r="W138" t="s">
+        <v>nrndgjzryavj</v>
+      </c>
+      <c r="AA139" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="139" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U139" s="1" t="str">
+    <row r="140" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y140" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>jzhtgkaoltkj</v>
-      </c>
-      <c r="W139" t="s">
+        <v>cihxagpwepnu</v>
+      </c>
+      <c r="AA140" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="140" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U140" s="1" t="str">
+    <row r="141" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y141" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ytydtfxftfex</v>
-      </c>
-      <c r="W140" t="s">
+        <v>qlymalhxzhzq</v>
+      </c>
+      <c r="AA141" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="141" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U141" s="1" t="str">
+    <row r="142" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y142" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>dfslhhalthnr</v>
-      </c>
-      <c r="W141" t="s">
+        <v>vzzhgacrrtqp</v>
+      </c>
+      <c r="AA142" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="142" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U142" s="1" t="str">
+    <row r="143" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y143" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>wleeftjujcam</v>
-      </c>
-      <c r="W142" t="s">
+        <v>nsdzqqejwnhq</v>
+      </c>
+      <c r="AA143" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="143" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U143" s="1" t="str">
+    <row r="144" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y144" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>kiwzqjnttiqg</v>
-      </c>
-      <c r="W143" t="s">
+        <v>ohafcvqpniju</v>
+      </c>
+      <c r="AA144" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="144" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U144" s="1" t="str">
+    <row r="145" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y145" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>oeeysvfuskku</v>
-      </c>
-      <c r="W144" t="s">
+        <v>tnwmhbpqcneb</v>
+      </c>
+      <c r="AA145" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="145" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U145" s="1" t="str">
+    <row r="146" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y146" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>dmwkrhmwegvt</v>
-      </c>
-      <c r="W145" t="s">
+        <v>jsktcrfipnyl</v>
+      </c>
+      <c r="AA146" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="146" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U146" s="1" t="str">
+    <row r="147" spans="25:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="Y147" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>rfjpwdffbfwh</v>
-      </c>
-      <c r="W146" t="s">
+        <v>crkcrdsskqzh</v>
+      </c>
+      <c r="AA147" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="147" spans="21:23" ht="17" x14ac:dyDescent="0.25">
-      <c r="U147" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>gnbbiqothcjd</v>
-      </c>
-      <c r="W147" t="s">
-        <v>474</v>
       </c>
     </row>
   </sheetData>
